--- a/Tabla de Revision.xlsx
+++ b/Tabla de Revision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d967b9d49e8ef17/Documentos/TESIS ANDRÉS/Desarrollo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacv3\OneDrive\Documentos\TESIS ANDRÉS\Envio Carpetas GitHub\Documentos Importantes\DocumentosTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{CEE586D1-E5A3-4B56-9F3F-759268F8CC34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{2A43FF31-1745-4FE6-845D-6C8F80C3AFBD}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{CEE586D1-E5A3-4B56-9F3F-759268F8CC34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{A0211342-2816-41EB-9AB0-DE9AEF293FF0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{A7CA38E5-AACC-4E2B-8119-A16F55C14738}"/>
   </bookViews>
@@ -739,10 +739,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D661D05-5869-4E58-B586-3D4FE9073962}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -788,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="105.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>75</v>
       </c>
@@ -820,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="92.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>76</v>
       </c>
@@ -852,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="79.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>77</v>
       </c>
@@ -884,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>78</v>
       </c>
@@ -948,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="79.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="118.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -1143,13 +1142,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I11" xr:uid="{B873D4C9-B7DA-4DE7-AF23-18C19C8269AB}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Apache                    MySql                    PHP"/>
-        <filter val="Java_x000a_Postgres_x000a_Apache Tomcat_x000a_JSF_x000a_JasperReports_x000a_"/>
-        <filter val="PHP_x000a_MySQL_x000a_Servidor Apache_x000a_"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A11:I11">
       <sortCondition ref="A1:A11"/>
     </sortState>

--- a/Tabla de Revision.xlsx
+++ b/Tabla de Revision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacv3\OneDrive\Documentos\TESIS ANDRÉS\Envio Carpetas GitHub\Documentos Importantes\DocumentosTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{CEE586D1-E5A3-4B56-9F3F-759268F8CC34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{A0211342-2816-41EB-9AB0-DE9AEF293FF0}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{CEE586D1-E5A3-4B56-9F3F-759268F8CC34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{10357F1F-A69B-4D30-A6FC-3F240F2B7A93}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{A7CA38E5-AACC-4E2B-8119-A16F55C14738}"/>
   </bookViews>
@@ -313,7 +313,7 @@
     <t>RRAAE 9</t>
   </si>
   <si>
-    <t>Bibliotecas del Ecuador 10</t>
+    <t>Bibliotecas del Ecuador  10</t>
   </si>
 </sst>
 </file>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D661D05-5869-4E58-B586-3D4FE9073962}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tabla de Revision.xlsx
+++ b/Tabla de Revision.xlsx
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D661D05-5869-4E58-B586-3D4FE9073962}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tabla de Revision.xlsx
+++ b/Tabla de Revision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacv3\OneDrive\Documentos\TESIS ANDRÉS\Envio Carpetas GitHub\Documentos Importantes\DocumentosTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d967b9d49e8ef17/Documentos/TESIS ANDRÉS/Envio Carpetas GitHub/Documentos Importantes/DocumentosTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{CEE586D1-E5A3-4B56-9F3F-759268F8CC34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{10357F1F-A69B-4D30-A6FC-3F240F2B7A93}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{CEE586D1-E5A3-4B56-9F3F-759268F8CC34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{01554369-245B-415F-B6AB-B6091710820C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{A7CA38E5-AACC-4E2B-8119-A16F55C14738}"/>
   </bookViews>
@@ -151,10 +151,6 @@
     <t>Se debe trabajar en conjunto con el usuario en todo el proceso de desarrollo del sistema, el poder contar con el apoyo del especialista o usuario, permite que la metodología ágil aplicada, sea un total éxito.</t>
   </si>
   <si>
-    <t>GEOCONDA ISABEL SOLEDISPA MORÁN, GEOMAYRA ROCIO YAGUAL PRUDENTE
-TUTOR</t>
-  </si>
-  <si>
     <t>La solución se basa en el desarrollo de un sistema web para la gestión de pacientes,el motivo de realizar este proyecto se origina por la falta de un sistema informático que ayude en el manejo de toda la información que se lleva a cabo en el consultorio dental,se propone el desarrollo del sistema web con la finalidad de mejorar y reemplazar los procesos manuales.</t>
   </si>
   <si>
@@ -314,6 +310,10 @@
   </si>
   <si>
     <t>Bibliotecas del Ecuador  10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEOCONDA ISABEL SOLEDISPA MORÁN, 
+</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D661D05-5869-4E58-B586-3D4FE9073962}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,31 +790,31 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6">
         <v>2018</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -821,95 +822,95 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>2018</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="J3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="79.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6">
         <v>2017</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="J4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6">
         <v>2014</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="J5" s="10">
         <v>4</v>
@@ -917,71 +918,71 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6">
         <v>2016</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="79.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6">
         <v>2017</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="J7" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="92.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -1005,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J8" s="10">
         <v>7</v>
@@ -1013,7 +1014,7 @@
     </row>
     <row r="9" spans="1:10" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -1045,7 +1046,7 @@
     </row>
     <row r="10" spans="1:10" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>21</v>
@@ -1077,7 +1078,7 @@
     </row>
     <row r="11" spans="1:10" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>28</v>
@@ -1142,6 +1143,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I11" xr:uid="{B873D4C9-B7DA-4DE7-AF23-18C19C8269AB}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Bibliotecas del Ecuador  10"/>
+        <filter val="Google Scholar 1"/>
+        <filter val="Google Scholar 2"/>
+        <filter val="RRAAE 8"/>
+        <filter val="RRAAE 9"/>
+        <filter val="Scielo 5"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A11:I11">
       <sortCondition ref="A1:A11"/>
     </sortState>
